--- a/converted-data/excel/nakleyki_page_04.xlsx
+++ b/converted-data/excel/nakleyki_page_04.xlsx
@@ -491,10 +491,10 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>✅ Звичайно! Друкуємо наклейки на якісних матеріалах.
+          <t>✅ Звісно! Друкуємо наліпки на якісних матеріалах.
 📄 Паперова самоклейка або 🌟 плівка (біла матова/прозора).
-💰 Прямокутні 90*50мм від 000 грн за 100 шт ⚡ 1-2 дні
-💰 Фігурні від 000 грн за 100 шт ⚡ 2-3 дні.
+💰 Прямокутні 90*50мм від 220 грн за 100 шт ⚡ 1-2 дні
+💰 Фігурні від 242 грн за 100 шт ⚡ 2-3 дні.
 ❓ Чи маєте готовий для друку макет?</t>
         </is>
       </c>
@@ -502,9 +502,9 @@
         <is>
           <t>✅ Конечно! Печатаем наклейки на качественных материалах.
 📄 Бумажная самоклейка или 🌟 пленка (белая матовая/прозрачная).
-💰 Прямоугольные от 000 грн за 100 шт ⚡ 1-2 дня
-💰 Фигурные от 000 грн за 100 шт ⚡ 2-3 дня
-❓ Чи маєте готовий для друку макет?</t>
+💰 Прямоугольные 90х50мм от 220 грн за 100 шт ⚡ 1-2 дня
+💰 Фигурные от 242 грн за 100 шт ⚡ 2-3 дня
+❓ Есть ли у вас макет, готовый к печати?</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -604,10 +604,10 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Розуміємо, і це чудово! Ми дуже цінуємо роботу колег.
+          <t>Розуміємо, і це чудово! Ми дуже цінуємо роботу колег.
 Просто у нас такий підхід — ми відповідаємо за підсумкову якість наклейок на 100%, тому віддаємо перевагу векторним файлам.
 Особливо важливо для фігурних наклейок — потрібна точність контурів для якісного вирізання.
-Переведемо у вектор від 💰 250 грн — і результат буде бездоганним.	</t>
+Переведемо у вектор від 💰 250 грн — і результат буде бездоганним.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -644,15 +644,15 @@
       <c r="E6" t="inlineStr">
         <is>
           <t>📄 Друкуємо на двох типах матеріалів:
-🗞️ Паперова самоклейка — економічний варіант, підходить для внутрішнього використання
-🌟 Плівка — біла матова або прозрачна, стійка до вологи та УФ, для зовнішнього використання
-Для довготривалого використання рекомендуємо плівку з ламінацією.</t>
+🗞️ Самоклеючий папір — економний варіант, підходить для використання в приміщенні. Є варіант із посиленим клеєм, підходить для складних поверхонь і низьких температур.
+🌟 Плівка — біла матова або прозора, стійка до вологи та УФ-випромінювання, для зовнішнього використання.
+Для довготривалого застосування рекомендуємо плівку з ламінацією.</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
           <t>📄 Печатаем на двух типах материалов:
-🗞️ Бумажная самоклейка — экономичный вариант, подходит для внутреннего использования
+🗞️ Бумажная самоклейка — экономичный вариант, подходит для внутреннего использования. Есть вариант с усиленным клеем, подходит для проблемных материалов и низких температурах.
 🌟 Пленка — белая матовая или прозрачная, стойкая к влаге и УФ, для наружного использования
 Для долговременного использования рекомендуем пленку с ламинацией.</t>
         </is>
@@ -720,16 +720,16 @@
       <c r="E8" t="inlineStr">
         <is>
           <t xml:space="preserve">Чудово! Великі тиражі наклейок — наша сила.
-Прямокутні: 5000 шт — від 000 грн, 10000 шт — від 000 грн.
-Фігурні: 5000 шт — від 000 грн, 10000 шт — від 000 грн.
-Розкажіть точний тираж і форму — порахуємо найкращу ціну!	</t>
+Квадратні 40х40мм: 5000 шт — від 2770 грн, 10000 шт — від 5185 грн.
+Круглі 40мм діаметром: 5000 шт — від 3330 грн, 10000 шт — від 6230 грн.
+Розкажіть точний тираж і форму — порахуємо найкращу ціну!        </t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>тлично! Большие тиражи наклеек — наша сила.
-Прямоугольные: 5000 шт — от 000 грн, 10000 шт — от 000 грн.
-Фигурные: 5000 шт — от 000 грн, 10000 шт — от 000 грн.
+          <t>Отлично! Большие тиражи наклеек — наша сила.
+Квадратные 40х40: 5000 шт — от 2770 грн, 10000 шт — от 5185 грн.
+Круглые 40мм диаметр: 5000 шт — от 3330 грн, 10000 шт — от 6230 грн.
 Расскажите точный тираж и форму — посчитаем лучшую цену!</t>
         </is>
       </c>

--- a/converted-data/excel/nakleyki_page_04.xlsx
+++ b/converted-data/excel/nakleyki_page_04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -645,15 +645,15 @@
         <is>
           <t>📄 Друкуємо на двох типах матеріалів:
 🗞️ Самоклеючий папір — економний варіант, підходить для використання в приміщенні. Є варіант із посиленим клеєм, підходить для складних поверхонь і низьких температур.
-🌟 Плівка — біла матова або прозора, стійка до вологи та УФ-випромінювання, для зовнішнього використання.
+🌟 Плівка — біла матова або прозора, стійка до вологи та УФ-випромінювання, підходить для зовнішнього використання.
 Для довготривалого застосування рекомендуємо плівку з ламінацією.</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
           <t>📄 Печатаем на двух типах материалов:
-🗞️ Бумажная самоклейка — экономичный вариант, подходит для внутреннего использования. Есть вариант с усиленным клеем, подходит для проблемных материалов и низких температурах.
-🌟 Пленка — белая матовая или прозрачная, стойкая к влаге и УФ, для наружного использования
+🗞️ Бумажная самоклейка — экономичный вариант, подходит для внутреннего использования. Есть вариант с усиленным клеем, подходит для проблемных поверхностей и низких температурах.
+🌟 Пленка — белая матовая или прозрачная, стойкая к влаге и УФ, подходит для наружного использования
 Для долговременного использования рекомендуем пленку с ламинацией.</t>
         </is>
       </c>
@@ -748,28 +748,334 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>📋 Белый тонер</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>white, белый тонер, печать белым</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>⚪ Друкуємо білим тонером на прозорій плівці!
+🔍 Ідеально для вітрин, скла, темних поверхонь
+✨ Створюємо ефект "зсередини" — текст видно з обох сторін
+🌟 Прозорі наклейки з білим друком — преміум рішення
+Доплата за білий тонер: +30% до вартості тиражу.
+Мінімальний тираж — 1 А3 аркуш.</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>⚪ Печатаем белым тонером на прозрачной пленке!
+🔍 Идеально для витрин, стекла, темных поверхностей
+✨ Создаем эффект "изнутри" — текст виден с обеих сторон
+🌟 Прозрачные наклейки с белой печатью — премиум решение
+Доплата за белый тонер: +30% к стоимости тиража.
+Минимальный тираж — 1 А3 лист.</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>наклейки</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>🎯 Сложные формы</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>сложная форма, фигурная, контурная резка, высечка</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>🎯 Виготовляємо наклейки будь-яких форм!
+✂️ Контурна різка — повторюємо форму зображення
+🌟 Складні багатокутники, логотипи, силуети
+📐 Мінімальна товщина елементів — 2мм
+🔄 Радіус скруглення — не менше 1мм
+Доплата за складність форми: +10-20% залежно від деталізації.
+Покажіть референс — оцінимо складність!</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>🎯 Изготавливаем наклейки любых форм!
+✂️ Контурная резка — повторяем форму изображения
+🌟 Сложные многоугольники, логотипы, силуэты
+📐 Минимальная толщина элементов — 2мм
+🔄 Радиус скругления — не менее 1мм
+Доплата за сложность формы: +10-20% в зависимости от детализации.
+Покажите референс — оценим сложность!</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>наклейки</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>🌡️ Морозостойкие наклейки</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>мороз, холод, улица, -30, морозостойкие</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>🌡️ Спеціальні морозостійкі паперові наклейки!
+❄️ Витримують від -40°C до +80°C
+🏔️ Посилений акриловий клей для екстремальних умов
+🌨️ Ідеально для використання у морозильних камерах
+Доплата за морозостійкість: +10-15% до вартості тиражу.</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>🌡️ Специальные морозостойкие наклейки!
+❄️ Выдерживают от -40°C до +80°C
+🏔️ Усиленный акриловый клей для экстремальных условий
+🌨️ Идеально для использования в морозильных камерах
+🚗 Популярны для авто, окон, металлических поверхностей
+Доплата за морозостойкость: +10-15% к стоимости тиража.</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>наклейки</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>🔢 Нумерация наклеек</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>нумерация, номера, последовательность, пронумеровать</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>🔢 Друкуємо наклейки з нумерацією!
+📝 Послідовна нумерація: 001, 002, 003...
+🎯 Штрих-коди з унікальними номерами
+🔤 Буквено-цифрові коди: A001, B002...
+📊 QR-коди з індивідуальними даними
+Доплата за нумерацію: +1.00 грн/шт при тиражі до 1000 шт.
+Від 1000 шт — +0.50 грн/шт.</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>🔢 Печатаем наклейки с нумерацией!
+📝 Последовательная нумерация: 001, 002, 003...
+🎯 Штрих-коды с уникальными номерами
+🔤 Буквенно-цифровые коды: A001, B002...
+📊 QR-коды с индивидуальными данными
+Доплата за нумерацию: +1.00 грн/шт при тираже до 1000 шт.
+От 1000 шт — +0.50 грн/шт.</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>наклейки</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>12</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>🚚 Доставка наклеек</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>доставка, курьер, новая почта, отправить</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>🚚 Доставляємо наліпки по всій Україні!
+📦 Нова Пошта — від 75 грн, 1-2 дні
+🚕 Таксі по Харкову — 150 грн, у день готовності
+🏪 Самовивіз — безкоштовно, м.Харків, вул. Чернишевська, 8
+Для великих тиражів — спеціальна міцна упаковка.
+При замовленні від 1000 грн доставка НП безкоштовна.</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>🚚 Доставим наклейки по всей Украине!
+📦 Новая Почта — от 75 грн, 1-2 дня
+🚕 Такси по Харькову — 150 грн, в день готовности
+🏪 Самовывоз — бесплатно, г. Харьков, ул. Чернышевская, 8
+Для больших тиражей — специальная усиленная упаковка.
+При заказе от 1000 грн доставка НП бесплатная.</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>наклейки</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>💧 Водостойкие наклейки</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>водостойкие, влагостойкие, вода, душ, бассейн</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>💧 Водостійкі наклейки — наша спеціалізація!
+🌊 Витримують повне занурення у воду
+🚿 Для ванних кімнат, басейнів, кухонь
+🌧️ Стійкі до дощу та снігу
+🧽 Легко миються, не стираються
+Використовуємо плівку з водостійким клеєм + ламінація на вибір.
+Доплата: +40% до стандартної вартості.</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>💧 Водостойкие наклейки — наша специализация!
+🌊 Выдерживают полное погружение в воду
+🚿 Для ванных комнат, бассейнов, кухонь
+🌧️ Стойки к дождю и снегу
+🧽 Легко моются, не стираются
+Используем пленку с водостойким клеем + ламинация на выбор.
+Доплата: +40% к стандартной стоимости.</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>наклейки</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>14</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>🎪 Стикерпаки</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>стикерпак, набор, комплект, серия, коллекция</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>🎪 Створюємо стикерпаки будь-якої тематики!
+🎨 Скомбінуємо декілька дизайнів в одному пакеті.
+🌟 Різні розміри в одному наборі
+💫 Популярно для брендів, каналів, івентів
+Вартість: від 16 грн за 1 стикерпак (100 шт).
+Мінімальна партія — 1 набір.</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>🎪 Создаем стикерпаки любой тематики!
+🎨 Скомбинируем несколько дизайнов в одном пакете.
+🌟 Различные размеры в одном наборе
+💫 Популярно для брендов, каналов, ивентов
+Стоимость: от 16 грн за 1 стикерпак (100 шт).
+Минимальная партия – 1 набор.</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>наклейки</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>💰Предоплата</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>оплата, предоплата, деньги</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>💳 Працюємо за передоплатою - це чесно і прозоро.
 🤝 Такий підхід дає нам змогу використовувати перевірені матеріали та відповідати за результат.</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>💳 Работаем по предоплате — это честно и прозрачно.
 🤝 Такой подход позволяет нам использовать проверенные материалы и отвечать за результат.</t>
         </is>
       </c>
-      <c r="G9" t="n">
-        <v>8</v>
+      <c r="G16" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
